--- a/source-xlsx/25-04-2020.xlsx
+++ b/source-xlsx/25-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBC00C-DEC0-425E-BD77-92ED6A6EEB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF9189-4CCE-4186-95F7-F71DD4F6BDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D212" sqref="A1:D212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,34 +1063,32 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <f>71+1</f>
-        <v>72</v>
+      <c r="C2" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
-        <f>261+1</f>
-        <v>262</v>
+      <c r="C3" s="2">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>181</v>
       </c>
     </row>
@@ -1098,22 +1096,21 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <f>1+29</f>
-        <v>30</v>
+      <c r="C5" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1121,22 +1118,21 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <f>19+594</f>
-        <v>613</v>
+      <c r="C7" s="2">
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>62</v>
       </c>
     </row>
@@ -1144,22 +1140,21 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
-        <f>1+141</f>
-        <v>142</v>
+      <c r="C9" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>12</v>
       </c>
     </row>
@@ -1167,10 +1162,10 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1178,10 +1173,10 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>22</v>
       </c>
     </row>
@@ -1189,10 +1184,10 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1200,10 +1195,10 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>46</v>
       </c>
     </row>
@@ -1211,46 +1206,43 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
-        <f>2+46</f>
-        <v>48</v>
+      <c r="C15" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
-        <f>1+6</f>
-        <v>7</v>
+      <c r="C16" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
-        <f>1+39</f>
-        <v>40</v>
+      <c r="C17" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>29</v>
       </c>
     </row>
@@ -1258,10 +1250,10 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>28</v>
       </c>
     </row>
@@ -1269,10 +1261,10 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1280,10 +1272,10 @@
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1291,10 +1283,10 @@
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1302,10 +1294,10 @@
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1313,10 +1305,10 @@
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1324,10 +1316,10 @@
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
     </row>
@@ -1335,10 +1327,10 @@
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>41</v>
       </c>
     </row>
@@ -1346,10 +1338,10 @@
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>11</v>
       </c>
     </row>
@@ -1357,10 +1349,10 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>18</v>
       </c>
     </row>
@@ -1368,22 +1360,21 @@
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
-        <f>4+16</f>
-        <v>20</v>
+      <c r="C29" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1391,10 +1382,10 @@
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1402,10 +1393,10 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1413,10 +1404,10 @@
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>13</v>
       </c>
     </row>
@@ -1424,10 +1415,10 @@
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1435,10 +1426,10 @@
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1446,10 +1437,10 @@
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1457,10 +1448,10 @@
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1468,10 +1459,10 @@
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1479,10 +1470,10 @@
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1490,10 +1481,10 @@
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1501,10 +1492,10 @@
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1512,10 +1503,10 @@
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1523,22 +1514,21 @@
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="4">
-        <f>1+8</f>
-        <v>9</v>
+      <c r="C43" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>87</v>
       </c>
     </row>
@@ -1546,10 +1536,10 @@
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>37</v>
       </c>
     </row>
@@ -1557,10 +1547,10 @@
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>25</v>
       </c>
     </row>
@@ -1568,10 +1558,10 @@
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>19</v>
       </c>
     </row>
@@ -1579,10 +1569,10 @@
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>23</v>
       </c>
     </row>
@@ -1590,10 +1580,10 @@
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>2</v>
       </c>
       <c r="D49" s="2"/>
@@ -1602,10 +1592,10 @@
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>38</v>
       </c>
       <c r="D50" s="2"/>
@@ -1614,10 +1604,10 @@
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>19</v>
       </c>
       <c r="D51" s="2"/>
@@ -1626,10 +1616,10 @@
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>7</v>
       </c>
       <c r="D52" s="2"/>
@@ -1638,10 +1628,10 @@
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>5</v>
       </c>
       <c r="D53" s="2"/>
@@ -1650,10 +1640,10 @@
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>4</v>
       </c>
       <c r="D54" s="2"/>
@@ -1662,10 +1652,10 @@
       <c r="A55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>3</v>
       </c>
       <c r="D55" s="2"/>
@@ -1674,10 +1664,10 @@
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="2"/>
@@ -1686,10 +1676,10 @@
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>11</v>
       </c>
       <c r="D57" s="2"/>
@@ -1698,10 +1688,10 @@
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2"/>
@@ -1710,10 +1700,10 @@
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>2</v>
       </c>
       <c r="D59" s="2"/>
@@ -1722,10 +1712,10 @@
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>10</v>
       </c>
       <c r="D60" s="2"/>

--- a/source-xlsx/25-04-2020.xlsx
+++ b/source-xlsx/25-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF9189-4CCE-4186-95F7-F71DD4F6BDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6B812-32E2-403E-ADBB-3FBB7D206CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="218">
   <si>
     <t>division</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sher-E-Bangla Nagar </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3849,10 +3852,18 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="A213" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2228</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
